--- a/DSLR/安全/hips_report.xlsx
+++ b/DSLR/安全/hips_report.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\DSLR\安全\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31585314-E13F-4222-B899-6CAC2BFEC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A9AC2-B27C-4D98-8D39-127EF23176D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59714089-E8C3-4AE6-ADE9-1EAA966F9548}"/>
   </bookViews>
   <sheets>
     <sheet name="资产指纹1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">资产指纹1!$A$1:$F$160</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -2056,10 +2059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E241BE-91A8-402B-BB79-0D91881C6FF1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2091,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>328</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
@@ -2131,7 +2135,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>330</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>331</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>332</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>334</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>335</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>336</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>337</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>338</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>339</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>340</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>341</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>342</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>343</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>344</v>
       </c>
@@ -2431,7 +2435,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>345</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>346</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>347</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>348</v>
       </c>
@@ -2511,7 +2515,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>349</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>350</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>351</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>352</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>353</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>354</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>355</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>356</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>357</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>358</v>
       </c>
@@ -2711,7 +2715,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>359</v>
       </c>
@@ -2731,7 +2735,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>360</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>361</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>362</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>363</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>364</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>365</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>366</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>367</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>368</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>369</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>370</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>459</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>461</v>
       </c>
@@ -3031,7 +3035,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>462</v>
       </c>
@@ -3051,7 +3055,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>463</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>464</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>465</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>466</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>467</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>468</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>469</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>470</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>471</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>474</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>475</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>476</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>477</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>478</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>479</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>480</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>481</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>482</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>483</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>484</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>485</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>457</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>456</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>455</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>365</v>
       </c>
@@ -3591,7 +3595,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>454</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>453</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>452</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>451</v>
       </c>
@@ -3671,7 +3675,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>450</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>449</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>448</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>447</v>
       </c>
@@ -3751,7 +3755,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>446</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>427</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>426</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>425</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>424</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>423</v>
       </c>
@@ -3871,7 +3875,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>422</v>
       </c>
@@ -3891,7 +3895,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>428</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>429</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>430</v>
       </c>
@@ -3951,7 +3955,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>445</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>444</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>443</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>442</v>
       </c>
@@ -4031,7 +4035,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>441</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>440</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>439</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>438</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>437</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>436</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>435</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>434</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>433</v>
       </c>
@@ -4211,7 +4215,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>432</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>431</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>421</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>420</v>
       </c>
@@ -4291,7 +4295,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>419</v>
       </c>
@@ -4311,7 +4315,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>418</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>417</v>
       </c>
@@ -4351,7 +4355,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>416</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>415</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>414</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>413</v>
       </c>
@@ -4431,7 +4435,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>412</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>411</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>410</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>409</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>408</v>
       </c>
@@ -4531,7 +4535,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>407</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>406</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>405</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>404</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>403</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>402</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>401</v>
       </c>
@@ -4671,7 +4675,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>400</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>399</v>
       </c>
@@ -4711,7 +4715,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>398</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>397</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>396</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>395</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>394</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>393</v>
       </c>
@@ -4831,7 +4835,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>392</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>391</v>
       </c>
@@ -4871,7 +4875,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>390</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>389</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>388</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>387</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>386</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>385</v>
       </c>
@@ -4991,7 +4995,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>384</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>383</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>382</v>
       </c>
@@ -5051,7 +5055,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>381</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>380</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>379</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>378</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>377</v>
       </c>
@@ -5151,7 +5155,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>376</v>
       </c>
@@ -5191,7 +5195,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>374</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>373</v>
       </c>
@@ -5231,7 +5235,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>372</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>371</v>
       </c>
@@ -5272,6 +5276,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F160" xr:uid="{B8E241BE-91A8-402B-BB79-0D91881C6FF1}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="10.10.250.140"/>
+        <filter val="10.10.250.178"/>
+        <filter val="10.10.250.181"/>
+        <filter val="10.10.250.54"/>
+        <filter val="10.10.250.6"/>
+        <filter val="10.10.250.65"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
